--- a/wbes/variable.xlsx
+++ b/wbes/variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ufm\wbes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32298490-B885-4259-AB6E-0728461CB5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A7903F-726D-4FDA-B129-CD76865F8ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>full</t>
   </si>
   <si>
-    <t>informal</t>
-  </si>
-  <si>
     <t>a3a</t>
   </si>
   <si>
@@ -46,6 +43,18 @@
   </si>
   <si>
     <t>biggest obstacle</t>
+  </si>
+  <si>
+    <t>ISES</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>firms id</t>
   </si>
 </sst>
 </file>
@@ -363,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -379,28 +388,39 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
